--- a/Map array.xlsx
+++ b/Map array.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>rij nr 1</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>rij nr 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array: </t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EF86"/>
+  <dimension ref="A1:EF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:E86"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="BG39" sqref="BG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15164,6 +15167,15 @@
       <c r="E86" t="str">
         <f t="shared" si="0"/>
         <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" t="str">
+        <f xml:space="preserve"> "{ {" &amp;E52 &amp; " },  {" &amp;E53&amp; " },  {" &amp;E54&amp; " },  {" &amp;E55&amp; " },  {" &amp;E56&amp; " },  {" &amp;E57&amp; " },  {" &amp;E58&amp; " },  {" &amp;E59&amp; " },  {" &amp;E60&amp; " },  {" &amp;E61&amp; " },  {" &amp;E62&amp; " },  {" &amp;E63&amp; " },  {" &amp;E64&amp; " },  {" &amp;E65&amp; " },  {" &amp;E66&amp; " },  {" &amp;E67&amp; " },  {" &amp;E68&amp; " },  {" &amp;E69&amp; " },  {" &amp;E70&amp; " },  {" &amp;E71&amp; " },  {" &amp;E72&amp; " },  {" &amp;E73&amp; " },  {" &amp;E74&amp; " },  {" &amp;E75&amp; " },  {" &amp;E76&amp; " },  {" &amp;E77&amp; " },  {" &amp;E78&amp; " },  {" &amp;E79&amp; " },  {" &amp;E80&amp; " },  {" &amp;E81&amp; " },  {" &amp;E82&amp; " },  {" &amp;E83&amp; " },  {" &amp;E84&amp; " },  {" &amp;E85&amp; " },  {" &amp;E86&amp; " } };"</f>
+        <v>{ {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 4, 4, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, -1, 0, -1, 0, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 3, 3, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 3, 3, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, 0, 0, 0, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, 6, 6, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, 6, 6, 6, 6, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, 6, 6, 6, 6, 6, 6, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 5, 5, 5, 5, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 5, 3, 3, 5, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 5, 3, 3, 5, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 } };</v>
       </c>
     </row>
   </sheetData>

--- a/Map array.xlsx
+++ b/Map array.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25703"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\HAN\OOPD\OOPDGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxgroenendijk/OneDrive/HAN/OOPD/OOPDGame2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14316" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -215,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -495,13 +495,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="BG39" sqref="BG39"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="214" zoomScalePageLayoutView="214" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:136" x14ac:dyDescent="0.3">
@@ -3900,22 +3900,22 @@
         <v>-1</v>
       </c>
       <c r="AM9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS9">
         <v>-1</v>
@@ -4681,25 +4681,25 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>-1</v>
@@ -5890,28 +5890,28 @@
         <v>-1</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -7102,28 +7102,28 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>-1</v>
@@ -14932,7 +14932,7 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
+        <v>0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
+        <v>0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
+        <v>0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
+        <v>0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E95" t="str">
         <f xml:space="preserve"> "{ {" &amp;E52 &amp; " },  {" &amp;E53&amp; " },  {" &amp;E54&amp; " },  {" &amp;E55&amp; " },  {" &amp;E56&amp; " },  {" &amp;E57&amp; " },  {" &amp;E58&amp; " },  {" &amp;E59&amp; " },  {" &amp;E60&amp; " },  {" &amp;E61&amp; " },  {" &amp;E62&amp; " },  {" &amp;E63&amp; " },  {" &amp;E64&amp; " },  {" &amp;E65&amp; " },  {" &amp;E66&amp; " },  {" &amp;E67&amp; " },  {" &amp;E68&amp; " },  {" &amp;E69&amp; " },  {" &amp;E70&amp; " },  {" &amp;E71&amp; " },  {" &amp;E72&amp; " },  {" &amp;E73&amp; " },  {" &amp;E74&amp; " },  {" &amp;E75&amp; " },  {" &amp;E76&amp; " },  {" &amp;E77&amp; " },  {" &amp;E78&amp; " },  {" &amp;E79&amp; " },  {" &amp;E80&amp; " },  {" &amp;E81&amp; " },  {" &amp;E82&amp; " },  {" &amp;E83&amp; " },  {" &amp;E84&amp; " },  {" &amp;E85&amp; " },  {" &amp;E86&amp; " } };"</f>
-        <v>{ {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 4, 4, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, -1, 0, -1, 0, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 3, 3, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 3, 3, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, 0, 0, 0, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, 6, 6, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, 6, 6, 6, 6, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, 6, 6, 6, 6, 6, 6, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 5, 5, 5, 5, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 5, 3, 3, 5, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 5, 3, 3, 5, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 } };</v>
+        <v>{ {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 4, 4, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, -1, 0, -1, 0, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 3, 3, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 3, 3, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, 0, 0, 0, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, -1, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, 6, 6, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, 6, 6, 6, 6, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 6, 6, 6, 6, 6, 6, 6, 6, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 5, 5, 5, 5, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 5, 3, 3, 5, -1, -1, -1, -1, 0 },  {0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 5, 3, 3, 5, -1, -1, -1, -1, 0 },  {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0 } };</v>
       </c>
     </row>
   </sheetData>
